--- a/Keyword Map NLP.xlsx
+++ b/Keyword Map NLP.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
   <si>
     <t xml:space="preserve">Keyword</t>
   </si>
@@ -40,7 +40,10 @@
     <t xml:space="preserve">Neg</t>
   </si>
   <si>
-    <t xml:space="preserve">time</t>
+    <t xml:space="preserve">Trigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rqt</t>
   </si>
   <si>
     <t xml:space="preserve">make</t>
@@ -280,13 +283,13 @@
     <t xml:space="preserve">drawer</t>
   </si>
   <si>
-    <t xml:space="preserve">refrigorator</t>
+    <t xml:space="preserve">refrigerator</t>
   </si>
   <si>
     <t xml:space="preserve">fan</t>
   </si>
   <si>
-    <t xml:space="preserve">air conditioner </t>
+    <t xml:space="preserve">AC</t>
   </si>
   <si>
     <t xml:space="preserve">table</t>
@@ -361,7 +364,7 @@
     <t xml:space="preserve">wash</t>
   </si>
   <si>
-    <t xml:space="preserve">Bathe</t>
+    <t xml:space="preserve">bathe</t>
   </si>
   <si>
     <t xml:space="preserve">wait</t>
@@ -388,7 +391,7 @@
     <t xml:space="preserve">take out</t>
   </si>
   <si>
-    <t xml:space="preserve">unthaw</t>
+    <t xml:space="preserve">thaw</t>
   </si>
   <si>
     <t xml:space="preserve">create</t>
@@ -412,22 +415,22 @@
     <t xml:space="preserve">start</t>
   </si>
   <si>
-    <t xml:space="preserve">stop</t>
+    <t xml:space="preserve">hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what</t>
   </si>
   <si>
     <t xml:space="preserve">is</t>
   </si>
   <si>
-    <t xml:space="preserve">was</t>
-  </si>
-  <si>
-    <t xml:space="preserve">were</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hot</t>
+    <t xml:space="preserve">am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">here</t>
   </si>
 </sst>
 </file>
@@ -533,13 +536,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1024"/>
+  <dimension ref="A1:H1024"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T128" activeCellId="0" sqref="T128"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.7"/>
@@ -567,10 +570,13 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -588,18 +594,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0</v>
@@ -609,11 +618,17 @@
       </c>
       <c r="F3" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>0</v>
@@ -628,12 +643,18 @@
         <v>0</v>
       </c>
       <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>0</v>
@@ -648,12 +669,18 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>0</v>
@@ -668,12 +695,18 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>0</v>
@@ -688,18 +721,24 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>0</v>
@@ -709,11 +748,17 @@
       </c>
       <c r="F8" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
@@ -728,12 +773,18 @@
         <v>0</v>
       </c>
       <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>0</v>
@@ -748,12 +799,18 @@
         <v>0</v>
       </c>
       <c r="F10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>0</v>
@@ -768,12 +825,18 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>0</v>
@@ -788,12 +851,18 @@
         <v>0</v>
       </c>
       <c r="F12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>0</v>
@@ -808,12 +877,18 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>0</v>
@@ -828,12 +903,18 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>0</v>
@@ -848,12 +929,18 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>0</v>
@@ -868,12 +955,18 @@
         <v>0</v>
       </c>
       <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>0</v>
@@ -888,12 +981,18 @@
         <v>0</v>
       </c>
       <c r="F17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>0</v>
@@ -908,12 +1007,18 @@
         <v>0</v>
       </c>
       <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>0</v>
@@ -928,12 +1033,18 @@
         <v>0</v>
       </c>
       <c r="F19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>0</v>
@@ -948,12 +1059,18 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>0</v>
@@ -968,12 +1085,18 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>0</v>
@@ -988,12 +1111,18 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>0</v>
@@ -1008,12 +1137,18 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>0</v>
@@ -1028,12 +1163,18 @@
         <v>0</v>
       </c>
       <c r="F24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>0</v>
@@ -1048,12 +1189,18 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>0</v>
@@ -1068,12 +1215,18 @@
         <v>0</v>
       </c>
       <c r="F26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>0</v>
@@ -1088,12 +1241,18 @@
         <v>0</v>
       </c>
       <c r="F27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>0</v>
@@ -1108,12 +1267,18 @@
         <v>0</v>
       </c>
       <c r="F28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>1</v>
@@ -1128,12 +1293,18 @@
         <v>0</v>
       </c>
       <c r="F29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>1</v>
@@ -1148,12 +1319,18 @@
         <v>0</v>
       </c>
       <c r="F30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>1</v>
@@ -1168,12 +1345,18 @@
         <v>0</v>
       </c>
       <c r="F31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>1</v>
@@ -1188,12 +1371,18 @@
         <v>0</v>
       </c>
       <c r="F32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>1</v>
@@ -1208,12 +1397,18 @@
         <v>0</v>
       </c>
       <c r="F33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>1</v>
@@ -1228,12 +1423,18 @@
         <v>0</v>
       </c>
       <c r="F34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>1</v>
@@ -1248,12 +1449,18 @@
         <v>0</v>
       </c>
       <c r="F35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>1</v>
@@ -1268,12 +1475,18 @@
         <v>0</v>
       </c>
       <c r="F36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>1</v>
@@ -1288,12 +1501,18 @@
         <v>0</v>
       </c>
       <c r="F37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>1</v>
@@ -1308,12 +1527,18 @@
         <v>0</v>
       </c>
       <c r="F38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>1</v>
@@ -1328,12 +1553,18 @@
         <v>0</v>
       </c>
       <c r="F39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>1</v>
@@ -1348,12 +1579,18 @@
         <v>0</v>
       </c>
       <c r="F40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" s="1" t="n">
         <v>1</v>
@@ -1368,12 +1605,18 @@
         <v>0</v>
       </c>
       <c r="F41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1" t="n">
         <v>1</v>
@@ -1388,12 +1631,18 @@
         <v>0</v>
       </c>
       <c r="F42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>1</v>
@@ -1408,12 +1657,18 @@
         <v>0</v>
       </c>
       <c r="F43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>1</v>
@@ -1428,12 +1683,18 @@
         <v>0</v>
       </c>
       <c r="F44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>1</v>
@@ -1448,12 +1709,18 @@
         <v>0</v>
       </c>
       <c r="F45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>1</v>
@@ -1468,12 +1735,18 @@
         <v>0</v>
       </c>
       <c r="F46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>1</v>
@@ -1488,12 +1761,18 @@
         <v>0</v>
       </c>
       <c r="F47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>1</v>
@@ -1508,12 +1787,18 @@
         <v>0</v>
       </c>
       <c r="F48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>1</v>
@@ -1528,12 +1813,18 @@
         <v>0</v>
       </c>
       <c r="F49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>0</v>
@@ -1548,12 +1839,18 @@
         <v>0</v>
       </c>
       <c r="F50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>0</v>
@@ -1568,12 +1865,18 @@
         <v>0</v>
       </c>
       <c r="F51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>0</v>
@@ -1588,12 +1891,18 @@
         <v>0</v>
       </c>
       <c r="F52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>0</v>
@@ -1608,12 +1917,18 @@
         <v>0</v>
       </c>
       <c r="F53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>0</v>
@@ -1628,12 +1943,18 @@
         <v>0</v>
       </c>
       <c r="F54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>0</v>
@@ -1648,12 +1969,18 @@
         <v>0</v>
       </c>
       <c r="F55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>0</v>
@@ -1668,12 +1995,18 @@
         <v>0</v>
       </c>
       <c r="F56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>0</v>
@@ -1688,12 +2021,18 @@
         <v>0</v>
       </c>
       <c r="F57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>0</v>
@@ -1708,12 +2047,18 @@
         <v>0</v>
       </c>
       <c r="F58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>0</v>
@@ -1728,12 +2073,18 @@
         <v>0</v>
       </c>
       <c r="F59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>0</v>
@@ -1748,12 +2099,18 @@
         <v>0</v>
       </c>
       <c r="F60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>0</v>
@@ -1768,12 +2125,18 @@
         <v>0</v>
       </c>
       <c r="F61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>0</v>
@@ -1788,12 +2151,18 @@
         <v>0</v>
       </c>
       <c r="F62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>0</v>
@@ -1808,12 +2177,18 @@
         <v>0</v>
       </c>
       <c r="F63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>0</v>
@@ -1828,12 +2203,18 @@
         <v>0</v>
       </c>
       <c r="F64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>0</v>
@@ -1848,12 +2229,18 @@
         <v>0</v>
       </c>
       <c r="F65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>0</v>
@@ -1868,12 +2255,18 @@
         <v>0</v>
       </c>
       <c r="F66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>0</v>
@@ -1888,12 +2281,18 @@
         <v>0</v>
       </c>
       <c r="F67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>0</v>
@@ -1908,12 +2307,18 @@
         <v>0</v>
       </c>
       <c r="F68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>0</v>
@@ -1928,12 +2333,18 @@
         <v>0</v>
       </c>
       <c r="F69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>0</v>
@@ -1948,12 +2359,18 @@
         <v>0</v>
       </c>
       <c r="F70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>0</v>
@@ -1968,12 +2385,18 @@
         <v>0</v>
       </c>
       <c r="F71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>0</v>
@@ -1988,12 +2411,18 @@
         <v>0</v>
       </c>
       <c r="F72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>0</v>
@@ -2008,12 +2437,18 @@
         <v>0</v>
       </c>
       <c r="F73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>0</v>
@@ -2028,12 +2463,18 @@
         <v>0</v>
       </c>
       <c r="F74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>0</v>
@@ -2048,12 +2489,18 @@
         <v>0</v>
       </c>
       <c r="F75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>0</v>
@@ -2068,12 +2515,18 @@
         <v>0</v>
       </c>
       <c r="F76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>0</v>
@@ -2088,12 +2541,18 @@
         <v>0</v>
       </c>
       <c r="F77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>0</v>
@@ -2108,12 +2567,18 @@
         <v>0</v>
       </c>
       <c r="F78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>0</v>
@@ -2128,12 +2593,18 @@
         <v>0</v>
       </c>
       <c r="F79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>0</v>
@@ -2148,12 +2619,18 @@
         <v>0</v>
       </c>
       <c r="F80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>0</v>
@@ -2168,12 +2645,18 @@
         <v>0</v>
       </c>
       <c r="F81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>0</v>
@@ -2188,12 +2671,18 @@
         <v>0</v>
       </c>
       <c r="F82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>0</v>
@@ -2208,12 +2697,18 @@
         <v>0</v>
       </c>
       <c r="F83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>0</v>
@@ -2228,12 +2723,18 @@
         <v>0</v>
       </c>
       <c r="F84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>0</v>
@@ -2248,12 +2749,18 @@
         <v>0</v>
       </c>
       <c r="F85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>0</v>
@@ -2268,12 +2775,18 @@
         <v>0</v>
       </c>
       <c r="F86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87" s="1" t="n">
         <v>0</v>
@@ -2288,12 +2801,18 @@
         <v>0</v>
       </c>
       <c r="F87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88" s="1" t="n">
         <v>0</v>
@@ -2308,12 +2827,18 @@
         <v>0</v>
       </c>
       <c r="F88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89" s="1" t="n">
         <v>0</v>
@@ -2328,12 +2853,18 @@
         <v>0</v>
       </c>
       <c r="F89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90" s="1" t="n">
         <v>0</v>
@@ -2348,12 +2879,18 @@
         <v>0</v>
       </c>
       <c r="F90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>0</v>
@@ -2368,12 +2905,18 @@
         <v>0</v>
       </c>
       <c r="F91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92" s="1" t="n">
         <v>0</v>
@@ -2388,12 +2931,18 @@
         <v>0</v>
       </c>
       <c r="F92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93" s="1" t="n">
         <v>0</v>
@@ -2408,12 +2957,18 @@
         <v>0</v>
       </c>
       <c r="F93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94" s="1" t="n">
         <v>0</v>
@@ -2428,12 +2983,18 @@
         <v>0</v>
       </c>
       <c r="F94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95" s="1" t="n">
         <v>0</v>
@@ -2448,12 +3009,18 @@
         <v>0</v>
       </c>
       <c r="F95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96" s="1" t="n">
         <v>0</v>
@@ -2468,12 +3035,18 @@
         <v>1</v>
       </c>
       <c r="F96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97" s="1" t="n">
         <v>0</v>
@@ -2488,12 +3061,18 @@
         <v>1</v>
       </c>
       <c r="F97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98" s="1" t="n">
         <v>0</v>
@@ -2508,12 +3087,18 @@
         <v>1</v>
       </c>
       <c r="F98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99" s="1" t="n">
         <v>0</v>
@@ -2528,12 +3113,18 @@
         <v>1</v>
       </c>
       <c r="F99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100" s="1" t="n">
         <v>0</v>
@@ -2549,11 +3140,17 @@
       </c>
       <c r="F100" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="G100" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101" s="1" t="n">
         <v>0</v>
@@ -2569,11 +3166,17 @@
       </c>
       <c r="F101" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="G101" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102" s="1" t="n">
         <v>0</v>
@@ -2589,11 +3192,17 @@
       </c>
       <c r="F102" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="G102" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103" s="1" t="n">
         <v>0</v>
@@ -2609,440 +3218,572 @@
       </c>
       <c r="F103" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="G103" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B105" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B106" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B107" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B108" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B109" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B110" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B111" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B112" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B113" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F113" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B114" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F114" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B115" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F115" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B116" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F116" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B117" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F117" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B118" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F118" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B119" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F119" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B120" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F120" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B121" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F121" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B122" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F122" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B123" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F123" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B124" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F124" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B125" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" s="1" t="n">
         <v>0</v>
@@ -3050,93 +3791,123 @@
       <c r="F125" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G125" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B126" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C126" s="1" t="n">
+      <c r="A126" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D126" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E126" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F126" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B127" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C127" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D127" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E127" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F127" s="1" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B128" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C128" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D128" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E128" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F128" s="1" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B129" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C129" s="1" t="n">
+      <c r="A129" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D129" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E129" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F129" s="1" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B130" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" s="1" t="n">
         <v>0</v>
@@ -3150,33 +3921,55 @@
       <c r="F130" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="G130" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B131" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C131" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D131" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E131" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F131" s="1" t="n">
+      <c r="A131" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G136" s="2"/>
+    </row>
+    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G137" s="2"/>
+    </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Keyword Map NLP.xlsx
+++ b/Keyword Map NLP.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="146">
   <si>
     <t xml:space="preserve">Keyword</t>
   </si>
@@ -424,13 +424,40 @@
     <t xml:space="preserve">what</t>
   </si>
   <si>
-    <t xml:space="preserve">is</t>
-  </si>
-  <si>
     <t xml:space="preserve">am</t>
   </si>
   <si>
     <t xml:space="preserve">here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shutdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rewind</t>
   </si>
 </sst>
 </file>
@@ -538,11 +565,11 @@
   </sheetPr>
   <dimension ref="A1:H1024"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M16" activeCellId="0" sqref="M16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C151" activeCellId="0" sqref="C151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.7"/>
@@ -3880,48 +3907,48 @@
       <c r="A129" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B129" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C129" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D129" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E129" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F129" s="0" t="n">
+      <c r="B129" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G129" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B130" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C130" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D130" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E130" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F130" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G130" s="2" t="n">
+      <c r="B130" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H130" s="0" t="n">
@@ -3933,13 +3960,13 @@
         <v>136</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" s="0" t="n">
         <v>0</v>
@@ -3954,26 +3981,266 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G133" s="2"/>
+      <c r="A133" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G134" s="2"/>
+      <c r="A134" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G135" s="2"/>
+      <c r="A135" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G136" s="2"/>
+      <c r="A136" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G137" s="2"/>
-    </row>
-    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="A137" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Keyword Map NLP.xlsx
+++ b/Keyword Map NLP.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="147">
   <si>
     <t xml:space="preserve">Keyword</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t xml:space="preserve">rewind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cabinet</t>
   </si>
 </sst>
 </file>
@@ -565,11 +568,11 @@
   </sheetPr>
   <dimension ref="A1:H1024"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C151" activeCellId="0" sqref="C151"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F143" activeCellId="0" sqref="F143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.7"/>
@@ -4241,7 +4244,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Keyword Map NLP.xlsx
+++ b/Keyword Map NLP.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="153">
   <si>
     <t xml:space="preserve">Keyword</t>
   </si>
@@ -461,6 +461,24 @@
   </si>
   <si>
     <t xml:space="preserve">cabinet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ottoman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bookcase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">futon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nightstand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bench</t>
   </si>
 </sst>
 </file>
@@ -568,11 +586,11 @@
   </sheetPr>
   <dimension ref="A1:H1024"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F143" activeCellId="0" sqref="F143"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H157" activeCellId="0" sqref="H157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.7"/>
@@ -4270,13 +4288,188 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Keyword Map NLP.xlsx
+++ b/Keyword Map NLP.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="156">
   <si>
     <t xml:space="preserve">Keyword</t>
   </si>
@@ -130,355 +130,364 @@
     <t xml:space="preserve">kitchen</t>
   </si>
   <si>
+    <t xml:space="preserve">livingroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bedroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dining</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bathroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laundry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">den</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hallway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sunroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pantry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parlor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entryway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lobby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nursery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coffee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">washer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dryer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">microwave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sofa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">couch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">television</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pillow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sheets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dresser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clothes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shorts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">socks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toilet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toothbrush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mirror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drawer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refrigerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breakfast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">super </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dinner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vegetable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agreed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">play</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bathe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">watch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dispose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">throw away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prepare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what</t>
+  </si>
+  <si>
+    <t xml:space="preserve">am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shutdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rewind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cabinet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ottoman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bookcase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">futon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nightstand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bench</t>
+  </si>
+  <si>
+    <t xml:space="preserve">room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">living</t>
+  </si>
+  <si>
     <t xml:space="preserve">living room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bedroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dining room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bathroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">laundry room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">den</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hallway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">garage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sunroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pantry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">closet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parlor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entryway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lobby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nursery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coffee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">washer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dryer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oven</t>
-  </si>
-  <si>
-    <t xml:space="preserve">microwave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spoon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knife</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sofa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">couch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">television</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pillow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sheets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dresser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clothes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shirt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shorts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shoes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">socks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toilet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toothbrush</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mirror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drawer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refrigerator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">breakfast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lunch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">super </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dinner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fruit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vegetable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">correct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agreed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disagree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incorrect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">listen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">play</t>
-  </si>
-  <si>
-    <t xml:space="preserve">open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">close</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bathe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">watch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">run</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dispose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">throw away</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">take out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prepare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turn off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turn on</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find</t>
-  </si>
-  <si>
-    <t xml:space="preserve">discover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">where</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what</t>
-  </si>
-  <si>
-    <t xml:space="preserve">am</t>
-  </si>
-  <si>
-    <t xml:space="preserve">here</t>
-  </si>
-  <si>
-    <t xml:space="preserve">camera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shutdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">restart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pause</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">video</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rewind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cabinet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ottoman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bookcase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">futon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nightstand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bench</t>
   </si>
 </sst>
 </file>
@@ -586,11 +595,11 @@
   </sheetPr>
   <dimension ref="A1:H1024"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H157" activeCellId="0" sqref="H157"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M132" activeCellId="0" sqref="M132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.7"/>
@@ -4470,9 +4479,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
